--- a/pabi_account_report/xlsx_template/xlsx_report_partner_list.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_partner_list.xlsx
@@ -25,16 +25,16 @@
     <t xml:space="preserve">Partner Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Is Customer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Supplier?</t>
+    <t xml:space="preserve">Is Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Supplier</t>
   </si>
   <si>
     <t xml:space="preserve">Partner Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Title+Name</t>
+    <t xml:space="preserve">Partner Name</t>
   </si>
   <si>
     <t xml:space="preserve">Hash tag</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Account Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank number</t>
+    <t xml:space="preserve">Bank Name</t>
   </si>
   <si>
     <t xml:space="preserve">Account Owner name</t>
@@ -386,8 +386,8 @@
   </sheetPr>
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD11" activeCellId="0" sqref="AD11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB6" activeCellId="0" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
